--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DE9D6-7A04-4118-9385-2E11A3A20DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAD5C4-53A0-43D0-860C-5264C84F410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7546,14 +7546,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -17365,7 +17365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -19160,8 +19160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EZ107"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BC72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CZ72" sqref="CZ72"/>
@@ -67761,10 +67761,10 @@
       <c r="B2" s="80" t="s">
         <v>1625</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="118" t="s">
         <v>1624</v>
       </c>
-      <c r="D2" s="116"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="81" t="s">
         <v>1621</v>
       </c>
@@ -67791,10 +67791,10 @@
       <c r="B4" s="70">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="116">
         <v>45962</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="75">
         <v>750</v>
       </c>
@@ -67821,10 +67821,10 @@
       <c r="B6" s="70">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="116">
         <v>46428</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="75">
         <v>497</v>
       </c>
@@ -67851,10 +67851,10 @@
       <c r="B8" s="70">
         <v>4.7E-2</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <v>46793</v>
       </c>
-      <c r="D8" s="118"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="75">
         <v>696</v>
       </c>
@@ -67881,10 +67881,10 @@
       <c r="B10" s="70">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="116">
         <v>47095</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="75">
         <v>596</v>
       </c>
@@ -67911,10 +67911,10 @@
       <c r="B12" s="70">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="116">
         <v>47178</v>
       </c>
-      <c r="D12" s="118"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="75">
         <v>863</v>
       </c>
@@ -67941,10 +67941,10 @@
       <c r="B14" s="70">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="116">
         <v>47524</v>
       </c>
-      <c r="D14" s="118"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="75">
         <v>792</v>
       </c>
@@ -67971,10 +67971,10 @@
       <c r="B16" s="70">
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="116">
         <v>47817</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="75">
         <v>698</v>
       </c>
@@ -68001,10 +68001,10 @@
       <c r="B18" s="70">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="116">
         <v>48468</v>
       </c>
-      <c r="D18" s="118"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="75">
         <v>859</v>
       </c>
@@ -68031,10 +68031,10 @@
       <c r="B20" s="70">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="116">
         <v>49350</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="75">
         <v>989</v>
       </c>
@@ -68061,10 +68061,10 @@
       <c r="B22" s="70">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="116">
         <v>52322</v>
       </c>
-      <c r="D22" s="118"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="75">
         <v>393</v>
       </c>
@@ -68091,10 +68091,10 @@
       <c r="B24" s="70">
         <v>4.6249999999999999E-2</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="116">
         <v>53401</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="75">
         <v>984</v>
       </c>
@@ -68175,16 +68175,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -68199,6 +68189,16 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAD5C4-53A0-43D0-860C-5264C84F410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC1A14-5F5C-4625-9143-182C124FCDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7546,14 +7546,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19160,7 +19160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EZ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="BC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -39689,7 +39689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GL1193"/>
   <sheetViews>
-    <sheetView topLeftCell="H84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H216" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BB257" sqref="BB257"/>
     </sheetView>
   </sheetViews>
@@ -67761,10 +67761,10 @@
       <c r="B2" s="80" t="s">
         <v>1625</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="116" t="s">
         <v>1624</v>
       </c>
-      <c r="D2" s="118"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="81" t="s">
         <v>1621</v>
       </c>
@@ -67791,10 +67791,10 @@
       <c r="B4" s="70">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="118">
         <v>45962</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="75">
         <v>750</v>
       </c>
@@ -67821,10 +67821,10 @@
       <c r="B6" s="70">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="118">
         <v>46428</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="75">
         <v>497</v>
       </c>
@@ -67851,10 +67851,10 @@
       <c r="B8" s="70">
         <v>4.7E-2</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="118">
         <v>46793</v>
       </c>
-      <c r="D8" s="116"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="75">
         <v>696</v>
       </c>
@@ -67881,10 +67881,10 @@
       <c r="B10" s="70">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="118">
         <v>47095</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="75">
         <v>596</v>
       </c>
@@ -67911,10 +67911,10 @@
       <c r="B12" s="70">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="118">
         <v>47178</v>
       </c>
-      <c r="D12" s="116"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="75">
         <v>863</v>
       </c>
@@ -67941,10 +67941,10 @@
       <c r="B14" s="70">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="118">
         <v>47524</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="75">
         <v>792</v>
       </c>
@@ -67971,10 +67971,10 @@
       <c r="B16" s="70">
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="118">
         <v>47817</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="75">
         <v>698</v>
       </c>
@@ -68001,10 +68001,10 @@
       <c r="B18" s="70">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="118">
         <v>48468</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="75">
         <v>859</v>
       </c>
@@ -68031,10 +68031,10 @@
       <c r="B20" s="70">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="118">
         <v>49350</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="75">
         <v>989</v>
       </c>
@@ -68061,10 +68061,10 @@
       <c r="B22" s="70">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="118">
         <v>52322</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="75">
         <v>393</v>
       </c>
@@ -68091,10 +68091,10 @@
       <c r="B24" s="70">
         <v>4.6249999999999999E-2</v>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="118">
         <v>53401</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="75">
         <v>984</v>
       </c>
@@ -68175,6 +68175,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -68189,16 +68199,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
